--- a/code/placestogo.xlsx
+++ b/code/placestogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grampianshealth-my.sharepoint.com/personal/97581_gh_org_au/Documents/Documents/GitHub/mapping_practice/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{9FBA6157-086B-4982-8352-67F54BF0F919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79536C2E-B68F-496C-8E11-9DEBEE59CEEC}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{9FBA6157-086B-4982-8352-67F54BF0F919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A1F5E3D-285A-4C37-BD2C-CEE552FC0A47}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="11055" windowWidth="17385" windowHeight="16755" xr2:uid="{09ACCF09-95C8-4DCC-863C-64E475980158}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>placename</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sits within the Collingwood Yards which is cute. This resturant is PEAK performative male venue, especially in evenings. </t>
+  </si>
+  <si>
+    <t>attended</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -264,6 +270,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,15 +593,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB7A962-F378-4136-825A-39918C115DE1}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +623,11 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -636,8 +649,11 @@
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -659,8 +675,11 @@
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>52</v>
       </c>
@@ -679,13 +698,19 @@
       <c r="G4" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -707,8 +732,11 @@
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -730,8 +758,11 @@
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -753,8 +784,11 @@
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -773,8 +807,11 @@
       <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -796,8 +833,11 @@
       <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -819,8 +859,11 @@
       <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -839,8 +882,11 @@
       <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -858,6 +904,9 @@
       </c>
       <c r="G13" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
